--- a/database/AN_ep/expdata/1005.xlsx
+++ b/database/AN_ep/expdata/1005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\GitHub\jam3d\database\AN_ep\expdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361556DB-50E7-4845-B567-45A47BA162D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D020AE7-E721-4E96-A3A0-0EF3BDDA3FEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1434" yWindow="1434" windowWidth="9870" windowHeight="8172" xr2:uid="{B94536DF-A7DB-4D41-844D-3F2C20EAB607}"/>
+    <workbookView xWindow="3072" yWindow="2604" windowWidth="9870" windowHeight="8172" xr2:uid="{B94536DF-A7DB-4D41-844D-3F2C20EAB607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I2:I16"/>
+      <selection activeCell="C2" sqref="C2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -472,13 +472,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F2">
         <v>17.3</v>
@@ -504,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F3">
         <v>17.3</v>
@@ -536,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F4">
         <v>17.3</v>
@@ -568,13 +568,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F5">
         <v>17.3</v>
@@ -600,13 +600,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F6">
         <v>17.3</v>
@@ -632,13 +632,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F7">
         <v>17.3</v>
@@ -664,13 +664,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F8">
         <v>17.3</v>
@@ -696,13 +696,13 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F9">
         <v>17.3</v>
@@ -728,13 +728,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F10">
         <v>17.3</v>
@@ -760,13 +760,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F11">
         <v>17.3</v>
@@ -792,13 +792,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F12">
         <v>17.3</v>
@@ -824,13 +824,13 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F13">
         <v>17.3</v>
@@ -856,13 +856,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F14">
         <v>17.3</v>
@@ -888,13 +888,13 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F15">
         <v>17.3</v>
@@ -920,13 +920,13 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F16">
         <v>17.3</v>

--- a/database/AN_ep/expdata/1005.xlsx
+++ b/database/AN_ep/expdata/1005.xlsx
@@ -138,16 +138,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -175,7 +171,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,9 +210,9 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -248,7 +244,7 @@
       <c r="A3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -280,7 +276,7 @@
       <c r="A4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -312,7 +308,7 @@
       <c r="A5" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -344,7 +340,7 @@
       <c r="A6" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -376,7 +372,7 @@
       <c r="A7" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -408,7 +404,7 @@
       <c r="A8" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -440,7 +436,7 @@
       <c r="A9" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -472,7 +468,7 @@
       <c r="A10" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -504,7 +500,7 @@
       <c r="A11" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -536,7 +532,7 @@
       <c r="A12" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -568,7 +564,7 @@
       <c r="A13" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -600,7 +596,7 @@
       <c r="A14" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -632,7 +628,7 @@
       <c r="A15" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -664,7 +660,7 @@
       <c r="A16" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="n">
